--- a/script/splash.xlsx
+++ b/script/splash.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="runtime" sheetId="1" r:id="rId1"/>
@@ -249,11 +249,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="ltDnDiag">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -321,11 +331,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -393,11 +413,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="diagBrick">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -465,11 +495,21 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -532,11 +572,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="106750008"/>
-        <c:axId val="106751576"/>
+        <c:axId val="265480872"/>
+        <c:axId val="264460888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="106750008"/>
+        <c:axId val="265480872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,12 +589,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -579,7 +614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106751576"/>
+        <c:crossAx val="264460888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -587,7 +622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106751576"/>
+        <c:axId val="264460888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,14 +673,16 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106750008"/>
+        <c:crossAx val="265480872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1069,11 +1106,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="543581176"/>
-        <c:axId val="543579608"/>
+        <c:axId val="264461672"/>
+        <c:axId val="264461280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543581176"/>
+        <c:axId val="264461672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1153,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543579608"/>
+        <c:crossAx val="264461280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1124,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543579608"/>
+        <c:axId val="264461280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543581176"/>
+        <c:crossAx val="264461672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1271,7 +1308,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1606,11 +1642,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="554220456"/>
-        <c:axId val="554220064"/>
+        <c:axId val="264722800"/>
+        <c:axId val="264538656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="554220456"/>
+        <c:axId val="264722800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554220064"/>
+        <c:crossAx val="264538656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="554220064"/>
+        <c:axId val="264538656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554220456"/>
+        <c:crossAx val="264722800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,7 +1762,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2143,11 +2178,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="543578432"/>
-        <c:axId val="543603520"/>
+        <c:axId val="454297640"/>
+        <c:axId val="454298032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="543578432"/>
+        <c:axId val="454297640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,7 +2225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543603520"/>
+        <c:crossAx val="454298032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2198,7 +2233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="543603520"/>
+        <c:axId val="454298032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2284,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543578432"/>
+        <c:crossAx val="454297640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4931,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5053,8 +5088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5289,7 +5324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/script/splash.xlsx
+++ b/script/splash.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="runtime" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
   <si>
     <t>radix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,17 +37,24 @@
     <t>ocean</t>
   </si>
   <si>
-    <t>bl-switch</t>
-  </si>
-  <si>
-    <t>iks</t>
-  </si>
-  <si>
-    <t>hmp</t>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hmpdb</t>
+    <t>BL-SWITCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMPDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -197,7 +204,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -243,7 +249,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bl-switch</c:v>
+                  <c:v>BL-SWITCH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -325,7 +331,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iks</c:v>
+                  <c:v>IKS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -407,7 +413,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmp</c:v>
+                  <c:v>HMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -489,7 +495,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmpdb</c:v>
+                  <c:v>HMPDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -572,11 +578,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="265480872"/>
-        <c:axId val="264460888"/>
+        <c:axId val="442235864"/>
+        <c:axId val="442236256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="265480872"/>
+        <c:axId val="442235864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +620,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264460888"/>
+        <c:crossAx val="442236256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -622,7 +628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264460888"/>
+        <c:axId val="442236256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265480872"/>
+        <c:crossAx val="442235864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -689,7 +695,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -771,7 +776,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="900"/>
+              <a:t>调度器性能分析</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -785,7 +814,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -803,7 +832,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13871981627296587"/>
+          <c:y val="0.14675925925925926"/>
+          <c:w val="0.83905796150481193"/>
+          <c:h val="0.6399380285797609"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -817,7 +856,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bl-switch</c:v>
+                  <c:v>BL-SWITCH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -889,7 +928,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iks</c:v>
+                  <c:v>IKS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -961,7 +1000,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmp</c:v>
+                  <c:v>HMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1033,7 +1072,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmpdb</c:v>
+                  <c:v>HMPDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1106,11 +1145,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="264461672"/>
-        <c:axId val="264461280"/>
+        <c:axId val="442237040"/>
+        <c:axId val="442237432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="264461672"/>
+        <c:axId val="442237040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1192,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264461280"/>
+        <c:crossAx val="442237432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,7 +1200,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264461280"/>
+        <c:axId val="442237432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1181,6 +1220,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>标准化后的运行时间</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1212,21 +1306,24 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264461672"/>
+        <c:crossAx val="442237040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1353,7 +1450,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bl-switch</c:v>
+                  <c:v>BL-SWITCH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1425,7 +1522,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iks</c:v>
+                  <c:v>IKS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1497,7 +1594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmp</c:v>
+                  <c:v>HMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1569,7 +1666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmpdb</c:v>
+                  <c:v>HMPDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1642,11 +1739,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="264722800"/>
-        <c:axId val="264538656"/>
+        <c:axId val="443555264"/>
+        <c:axId val="443555656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="264722800"/>
+        <c:axId val="443555264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1689,7 +1786,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264538656"/>
+        <c:crossAx val="443555656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1697,7 +1794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264538656"/>
+        <c:axId val="443555656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1845,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264722800"/>
+        <c:crossAx val="443555264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1843,6 +1940,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="900"/>
+              <a:t>调度器功耗分析</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1857,7 +1979,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1889,7 +2011,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bl-switch</c:v>
+                  <c:v>BL-SWITCH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1961,7 +2083,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>iks</c:v>
+                  <c:v>IKS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2033,7 +2155,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmp</c:v>
+                  <c:v>HMP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2105,7 +2227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hmpdb</c:v>
+                  <c:v>HMPDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2178,11 +2300,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="454297640"/>
-        <c:axId val="454298032"/>
+        <c:axId val="443556440"/>
+        <c:axId val="443556832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="454297640"/>
+        <c:axId val="443556440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454298032"/>
+        <c:crossAx val="443556832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2233,7 +2355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454298032"/>
+        <c:axId val="443556832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,6 +2375,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>标准化后的功耗</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2284,14 +2462,18 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454297640"/>
+        <c:crossAx val="443556440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:alpha val="20000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -4646,16 +4828,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4966,24 +5148,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -5088,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5098,17 +5283,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -5209,23 +5397,26 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -5324,24 +5515,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
